--- a/data/raw/Flying/tmp/Ib_false_RT_ID_table.xlsx
+++ b/data/raw/Flying/tmp/Ib_false_RT_ID_table.xlsx
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="341">
   <si>
     <t xml:space="preserve">Peak</t>
   </si>
@@ -763,10 +763,10 @@
     <t xml:space="preserve">P181</t>
   </si>
   <si>
+    <t xml:space="preserve">C25_ene_NA</t>
+  </si>
+  <si>
     <t xml:space="preserve">P182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C25_ene_NA</t>
   </si>
   <si>
     <t xml:space="preserve">P183</t>
@@ -1334,11 +1334,11 @@
   </sheetPr>
   <dimension ref="A1:M292"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A256" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B168" activeCellId="0" sqref="B168"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A259" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B256" activeCellId="0" sqref="B256"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.34"/>
   </cols>
@@ -5783,6 +5783,9 @@
       <c r="A182" s="0" t="s">
         <v>210</v>
       </c>
+      <c r="B182" s="0" t="s">
+        <v>211</v>
+      </c>
       <c r="C182" s="0" t="n">
         <v>35.55975</v>
       </c>
@@ -5801,10 +5804,10 @@
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B183" s="0" t="s">
         <v>211</v>
-      </c>
-      <c r="B183" s="0" t="s">
-        <v>212</v>
       </c>
       <c r="C183" s="0" t="n">
         <v>35.6475</v>
@@ -5845,7 +5848,7 @@
         <v>213</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C184" s="0" t="n">
         <v>35.726</v>
@@ -5879,6 +5882,9 @@
       <c r="A185" s="0" t="s">
         <v>214</v>
       </c>
+      <c r="B185" s="0" t="s">
+        <v>211</v>
+      </c>
       <c r="C185" s="0" t="n">
         <v>35.7671666666667</v>
       </c>
@@ -6198,6 +6204,9 @@
       <c r="A196" s="0" t="s">
         <v>227</v>
       </c>
+      <c r="B196" s="0" t="s">
+        <v>226</v>
+      </c>
       <c r="C196" s="0" t="n">
         <v>37.2286</v>
       </c>
@@ -7047,6 +7056,9 @@
       <c r="A223" s="0" t="s">
         <v>260</v>
       </c>
+      <c r="B223" s="0" t="s">
+        <v>259</v>
+      </c>
       <c r="C223" s="0" t="n">
         <v>41.448</v>
       </c>
@@ -7067,6 +7079,9 @@
       <c r="A224" s="0" t="s">
         <v>261</v>
       </c>
+      <c r="B224" s="0" t="s">
+        <v>259</v>
+      </c>
       <c r="C224" s="0" t="n">
         <v>41.4971666666667</v>
       </c>
@@ -7329,6 +7344,9 @@
       <c r="A232" s="0" t="s">
         <v>272</v>
       </c>
+      <c r="B232" s="0" t="s">
+        <v>271</v>
+      </c>
       <c r="C232" s="0" t="n">
         <v>42.798</v>
       </c>
@@ -8092,6 +8110,9 @@
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
         <v>304</v>
+      </c>
+      <c r="B257" s="0" t="s">
+        <v>303</v>
       </c>
       <c r="C257" s="0" t="n">
         <v>46.46425</v>
